--- a/flaskProject/spider/douban.xlsx
+++ b/flaskProject/spider/douban.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1645">
   <si>
     <t>moviename</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>223753人评价</t>
+  </si>
+  <si>
+    <t>路易·西霍</t>
   </si>
   <si>
     <t>2003/日本/剧情 喜剧 动画</t>
@@ -4958,7 +4961,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4969,13 +4972,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5443,46 +5439,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5494,97 +5493,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5941,15 +5937,16 @@
   <sheetPr/>
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="46.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="38.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="29.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="64.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="48.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="13.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="32.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="36.6666666666667" customWidth="1"/>
@@ -6726,13 +6723,13 @@
         <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6740,28 +6737,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6769,28 +6766,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6798,28 +6795,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6827,28 +6824,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6856,28 +6853,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6885,28 +6882,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6914,10 +6911,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -6926,16 +6923,16 @@
         <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6943,28 +6940,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6972,7 +6969,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -6984,16 +6981,16 @@
         <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7001,28 +6998,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7030,28 +7027,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7059,28 +7056,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7088,28 +7085,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7117,28 +7114,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
         <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7146,28 +7143,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E42" t="s">
         <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7175,28 +7172,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7204,28 +7201,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7233,28 +7230,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7262,28 +7259,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E46" t="s">
         <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7291,28 +7288,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7320,28 +7317,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7349,28 +7346,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7378,28 +7375,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7407,10 +7404,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -7419,16 +7416,16 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7436,28 +7433,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7465,28 +7462,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7494,28 +7491,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D54" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H54" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7523,28 +7520,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G55" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7552,28 +7549,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G56" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H56" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I56" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7581,28 +7578,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D57" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E57" t="s">
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7610,28 +7607,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G58" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7639,28 +7636,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D59" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E59" t="s">
         <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G59" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I59" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7668,28 +7665,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H60" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7697,28 +7694,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C61" t="s">
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7726,28 +7723,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H62" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I62" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7755,28 +7752,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G63" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H63" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I63" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7784,28 +7781,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E64" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F64" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I64" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7813,28 +7810,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I65" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7842,28 +7839,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7871,28 +7868,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G67" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H67" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7900,10 +7897,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -7912,16 +7909,16 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H68" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I68" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7929,28 +7926,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C69" t="s">
         <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G69" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H69" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I69" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -7958,28 +7955,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C70" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D70" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E70" t="s">
         <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G70" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H70" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7987,28 +7984,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D71" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I71" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8016,28 +8013,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C72" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D72" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F72" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G72" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H72" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I72" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8045,28 +8042,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C73" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D73" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G73" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H73" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8074,28 +8071,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C74" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D74" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G74" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H74" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I74" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8103,28 +8100,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C75" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F75" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G75" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H75" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I75" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8132,28 +8129,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G76" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H76" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I76" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8161,28 +8158,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C77" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D77" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G77" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H77" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I77" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8190,28 +8187,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C78" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D78" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E78" t="s">
         <v>183</v>
       </c>
       <c r="F78" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G78" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H78" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I78" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8219,28 +8216,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C79" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D79" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G79" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H79" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I79" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8248,28 +8245,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C80" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D80" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8277,28 +8274,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C81" t="s">
         <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G81" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H81" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I81" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8306,28 +8303,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C82" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D82" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E82" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F82" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I82" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8335,28 +8332,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C83" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D83" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G83" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H83" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I83" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8364,28 +8361,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E84" t="s">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G84" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H84" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I84" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8393,28 +8390,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C85" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D85" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G85" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H85" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I85" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8422,7 +8419,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -8434,16 +8431,16 @@
         <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G86" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I86" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8451,28 +8448,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C87" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D87" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E87" t="s">
         <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G87" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H87" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I87" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8480,7 +8477,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -8492,16 +8489,16 @@
         <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G88" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H88" t="s">
         <v>22</v>
       </c>
       <c r="I88" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -8509,28 +8506,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C89" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D89" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E89" t="s">
         <v>76</v>
       </c>
       <c r="F89" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G89" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H89" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I89" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -8538,28 +8535,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C90" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D90" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E90" t="s">
         <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G90" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H90" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I90" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -8567,28 +8564,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C91" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D91" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G91" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I91" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -8596,28 +8593,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C92" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D92" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E92" t="s">
         <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G92" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H92" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I92" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -8625,10 +8622,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C93" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -8637,16 +8634,16 @@
         <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G93" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H93" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I93" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -8654,28 +8651,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C94" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D94" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E94" t="s">
         <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G94" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H94" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I94" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -8683,7 +8680,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -8695,16 +8692,16 @@
         <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G95" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H95" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I95" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -8712,7 +8709,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -8724,16 +8721,16 @@
         <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G96" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H96" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I96" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -8741,28 +8738,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C97" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D97" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G97" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H97" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I97" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8770,28 +8767,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C98" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D98" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G98" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H98" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I98" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -8799,28 +8796,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C99" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D99" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E99" t="s">
         <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G99" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H99" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I99" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8828,28 +8825,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D100" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F100" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G100" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H100" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I100" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -8857,28 +8854,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C101" t="s">
         <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E101" t="s">
         <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G101" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H101" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I101" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -8886,28 +8883,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C102" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D102" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F102" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G102" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H102" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I102" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -8915,28 +8912,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C103" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D103" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E103" t="s">
         <v>183</v>
       </c>
       <c r="F103" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G103" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H103" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I103" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8944,28 +8941,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C104" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D104" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E104" t="s">
         <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G104" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H104" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I104" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -8973,28 +8970,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D105" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E105" t="s">
         <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G105" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H105" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I105" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9002,10 +8999,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C106" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D106" t="s">
         <v>168</v>
@@ -9014,16 +9011,16 @@
         <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G106" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H106" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I106" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9031,28 +9028,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C107" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D107" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E107" t="s">
         <v>183</v>
       </c>
       <c r="F107" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G107" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H107" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I107" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -9060,28 +9057,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C108" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D108" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G108" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H108" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="I108" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9089,28 +9086,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C109" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D109" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G109" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H109" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I109" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -9118,28 +9115,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C110" t="s">
         <v>95</v>
       </c>
       <c r="D110" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E110" t="s">
         <v>169</v>
       </c>
       <c r="F110" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G110" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H110" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I110" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -9147,28 +9144,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C111" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D111" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E111" t="s">
         <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G111" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H111" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I111" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -9176,28 +9173,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C112" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D112" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E112" t="s">
         <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G112" t="s">
         <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I112" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9205,28 +9202,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C113" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D113" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G113" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H113" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="I113" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -9234,28 +9231,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C114" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D114" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G114" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H114" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I114" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -9263,28 +9260,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C115" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D115" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F115" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G115" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H115" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I115" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9292,28 +9289,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C116" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D116" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G116" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H116" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I116" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -9321,10 +9318,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C117" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D117" t="s">
         <v>168</v>
@@ -9333,16 +9330,16 @@
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G117" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H117" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I117" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -9350,28 +9347,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C118" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D118" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E118" t="s">
         <v>183</v>
       </c>
       <c r="F118" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G118" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H118" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I118" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -9379,28 +9376,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C119" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E119" t="s">
         <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G119" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H119" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I119" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -9408,28 +9405,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C120" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D120" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E120" t="s">
         <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G120" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H120" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -9437,28 +9434,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C121" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D121" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E121" t="s">
         <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G121" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H121" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I121" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -9466,28 +9463,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C122" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D122" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E122" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F122" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G122" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H122" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I122" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -9495,28 +9492,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C123" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D123" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E123" t="s">
         <v>19</v>
       </c>
       <c r="F123" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G123" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H123" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I123" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -9524,28 +9521,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C124" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D124" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E124" t="s">
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G124" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H124" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="I124" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9553,28 +9550,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D125" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G125" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H125" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I125" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -9582,28 +9579,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C126" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D126" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E126" t="s">
         <v>183</v>
       </c>
       <c r="F126" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G126" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H126" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I126" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -9611,28 +9608,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C127" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D127" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E127" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F127" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G127" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H127" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I127" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -9640,28 +9637,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C128" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D128" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E128" t="s">
         <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G128" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H128" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I128" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -9669,28 +9666,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C129" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D129" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E129" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F129" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G129" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H129" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I129" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -9698,28 +9695,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C130" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D130" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E130" t="s">
         <v>47</v>
       </c>
       <c r="F130" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G130" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H130" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="I130" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -9727,28 +9724,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C131" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D131" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G131" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H131" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I131" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -9756,28 +9753,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C132" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D132" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E132" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F132" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G132" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H132" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I132" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -9785,28 +9782,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C133" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D133" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F133" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G133" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H133" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I133" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -9814,28 +9811,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C134" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G134" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H134" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="I134" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -9843,28 +9840,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C135" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D135" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E135" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F135" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G135" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H135" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I135" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -9872,28 +9869,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C136" t="s">
         <v>109</v>
       </c>
       <c r="D136" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E136" t="s">
         <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G136" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H136" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I136" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -9901,28 +9898,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C137" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D137" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E137" t="s">
         <v>47</v>
       </c>
       <c r="F137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G137" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H137" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I137" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -9930,28 +9927,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D138" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E138" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F138" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G138" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H138" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="I138" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -9959,28 +9956,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C139" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D139" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G139" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H139" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I139" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -9988,28 +9985,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C140" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D140" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E140" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F140" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G140" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H140" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I140" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -10017,28 +10014,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C141" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D141" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E141" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F141" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G141" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H141" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I141" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10046,28 +10043,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C142" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D142" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E142" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F142" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G142" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H142" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I142" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -10075,28 +10072,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C143" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D143" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G143" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H143" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="I143" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -10104,28 +10101,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C144" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D144" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E144" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F144" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G144" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H144" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="I144" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -10133,28 +10130,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C145" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D145" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E145" t="s">
         <v>183</v>
       </c>
       <c r="F145" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G145" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H145" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I145" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -10162,28 +10159,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C146" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D146" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E146" t="s">
         <v>169</v>
       </c>
       <c r="F146" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G146" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H146" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I146" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -10191,28 +10188,28 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C147" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D147" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F147" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G147" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H147" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I147" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -10220,28 +10217,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C148" t="s">
         <v>60</v>
       </c>
       <c r="D148" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E148" t="s">
         <v>169</v>
       </c>
       <c r="F148" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G148" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H148" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I148" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -10249,28 +10246,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C149" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D149" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G149" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H149" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I149" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10278,28 +10275,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C150" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D150" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E150" t="s">
         <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G150" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H150" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="I150" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10307,28 +10304,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C151" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D151" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E151" t="s">
         <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G151" t="s">
         <v>17</v>
       </c>
       <c r="H151" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="I151" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -10336,7 +10333,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C152" t="s">
         <v>88</v>
@@ -10348,16 +10345,16 @@
         <v>183</v>
       </c>
       <c r="F152" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G152" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H152" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I152" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -10365,28 +10362,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C153" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D153" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F153" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G153" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H153" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="I153" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -10394,28 +10391,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C154" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D154" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E154" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F154" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G154" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H154" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="I154" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -10423,28 +10420,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C155" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D155" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F155" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G155" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H155" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I155" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -10452,28 +10449,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C156" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F156" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G156" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H156" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="I156" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -10481,28 +10478,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D157" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E157" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F157" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G157" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H157" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="I157" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -10510,28 +10507,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C158" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D158" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E158" t="s">
         <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G158" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H158" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="I158" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -10539,28 +10536,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C159" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D159" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E159" t="s">
         <v>83</v>
       </c>
       <c r="F159" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G159" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H159" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I159" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -10568,28 +10565,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C160" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D160" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E160" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F160" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G160" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H160" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="I160" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -10597,28 +10594,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D161" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E161" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F161" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G161" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="H161" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I161" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -10626,28 +10623,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C162" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D162" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E162" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F162" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G162" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H162" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I162" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -10655,28 +10652,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C163" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D163" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F163" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G163" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="H163" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="I163" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -10684,28 +10681,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C164" t="s">
         <v>109</v>
       </c>
       <c r="D164" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E164" t="s">
         <v>183</v>
       </c>
       <c r="F164" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G164" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="H164" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="I164" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -10713,28 +10710,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C165" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D165" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E165" t="s">
         <v>83</v>
       </c>
       <c r="F165" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G165" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H165" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I165" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -10742,28 +10739,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C166" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D166" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E166" t="s">
         <v>183</v>
       </c>
       <c r="F166" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="G166" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H166" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="I166" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -10771,28 +10768,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C167" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D167" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E167" t="s">
         <v>47</v>
       </c>
       <c r="F167" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G167" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H167" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="I167" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -10800,28 +10797,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C168" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D168" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E168" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F168" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G168" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H168" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="I168" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -10829,28 +10826,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C169" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D169" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E169" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F169" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G169" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H169" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I169" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -10858,28 +10855,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C170" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D170" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E170" t="s">
         <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G170" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H170" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I170" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -10887,28 +10884,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C171" t="s">
         <v>95</v>
       </c>
       <c r="D171" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E171" t="s">
         <v>169</v>
       </c>
       <c r="F171" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G171" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H171" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I171" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -10916,28 +10913,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C172" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D172" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E172" t="s">
         <v>47</v>
       </c>
       <c r="F172" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G172" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H172" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="I172" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -10945,28 +10942,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C173" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D173" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E173" t="s">
         <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G173" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H173" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I173" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -10974,28 +10971,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C174" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D174" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E174" t="s">
         <v>169</v>
       </c>
       <c r="F174" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G174" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H174" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="I174" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -11003,28 +11000,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C175" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D175" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E175" t="s">
         <v>169</v>
       </c>
       <c r="F175" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G175" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H175" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="I175" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -11032,28 +11029,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C176" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D176" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E176" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F176" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G176" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H176" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="I176" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -11061,28 +11058,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C177" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D177" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E177" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F177" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G177" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H177" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="I177" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -11090,28 +11087,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C178" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D178" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E178" t="s">
         <v>169</v>
       </c>
       <c r="F178" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G178" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H178" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I178" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -11119,28 +11116,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C179" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D179" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E179" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F179" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G179" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H179" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="I179" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -11148,28 +11145,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C180" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D180" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E180" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F180" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G180" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H180" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="I180" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -11177,28 +11174,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C181" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D181" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E181" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F181" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G181" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H181" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="I181" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -11206,28 +11203,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C182" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D182" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E182" t="s">
         <v>169</v>
       </c>
       <c r="F182" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G182" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H182" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="I182" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -11235,10 +11232,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C183" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
@@ -11247,16 +11244,16 @@
         <v>169</v>
       </c>
       <c r="F183" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G183" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H183" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="I183" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -11264,28 +11261,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C184" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D184" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E184" t="s">
         <v>83</v>
       </c>
       <c r="F184" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G184" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H184" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="I184" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -11293,28 +11290,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C185" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D185" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E185" t="s">
         <v>169</v>
       </c>
       <c r="F185" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G185" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H185" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="I185" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -11322,28 +11319,28 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C186" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D186" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E186" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F186" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G186" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H186" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="I186" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -11351,28 +11348,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C187" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D187" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E187" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F187" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G187" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H187" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="I187" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -11380,28 +11377,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C188" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D188" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E188" t="s">
         <v>183</v>
       </c>
       <c r="F188" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G188" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H188" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I188" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -11409,28 +11406,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C189" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D189" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E189" t="s">
         <v>169</v>
       </c>
       <c r="F189" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G189" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H189" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="I189" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -11438,28 +11435,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C190" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D190" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E190" t="s">
         <v>183</v>
       </c>
       <c r="F190" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G190" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H190" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="I190" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -11467,28 +11464,28 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C191" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D191" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F191" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G191" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H191" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="I191" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -11496,7 +11493,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
@@ -11505,19 +11502,19 @@
         <v>18</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F192" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="G192" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H192" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="I192" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -11525,28 +11522,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C193" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D193" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E193" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F193" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G193" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H193" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I193" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -11554,28 +11551,28 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C194" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D194" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E194" t="s">
         <v>169</v>
       </c>
       <c r="F194" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G194" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H194" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I194" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -11583,28 +11580,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C195" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D195" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E195" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F195" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G195" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H195" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="I195" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -11612,28 +11609,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C196" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D196" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E196" t="s">
         <v>169</v>
       </c>
       <c r="F196" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G196" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H196" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="I196" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -11641,28 +11638,28 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C197" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D197" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E197" t="s">
         <v>47</v>
       </c>
       <c r="F197" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G197" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H197" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="I197" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -11670,28 +11667,28 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C198" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D198" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E198" t="s">
         <v>47</v>
       </c>
       <c r="F198" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G198" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H198" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="I198" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -11699,28 +11696,28 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C199" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D199" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E199" t="s">
         <v>169</v>
       </c>
       <c r="F199" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G199" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H199" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="I199" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -11728,28 +11725,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C200" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D200" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G200" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H200" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="I200" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -11757,28 +11754,28 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C201" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D201" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E201" t="s">
         <v>169</v>
       </c>
       <c r="F201" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G201" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H201" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="I201" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -11786,28 +11783,28 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C202" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D202" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G202" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H202" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="I202" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -11815,28 +11812,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C203" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D203" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E203" t="s">
         <v>83</v>
       </c>
       <c r="F203" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G203" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H203" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="I203" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -11844,10 +11841,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C204" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D204" t="s">
         <v>168</v>
@@ -11856,16 +11853,16 @@
         <v>169</v>
       </c>
       <c r="F204" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G204" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H204" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I204" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -11873,28 +11870,28 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C205" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D205" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E205" t="s">
         <v>83</v>
       </c>
       <c r="F205" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G205" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H205" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="I205" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -11902,28 +11899,28 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C206" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D206" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G206" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H206" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="I206" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -11931,28 +11928,28 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C207" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D207" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F207" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G207" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H207" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="I207" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -11960,28 +11957,28 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C208" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D208" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E208" t="s">
         <v>83</v>
       </c>
       <c r="F208" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G208" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H208" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="I208" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -11989,28 +11986,28 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C209" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D209" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E209" t="s">
         <v>83</v>
       </c>
       <c r="F209" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G209" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H209" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I209" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -12018,28 +12015,28 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C210" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D210" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E210" t="s">
         <v>183</v>
       </c>
       <c r="F210" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G210" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H210" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I210" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -12047,28 +12044,28 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C211" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D211" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E211" t="s">
         <v>83</v>
       </c>
       <c r="F211" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G211" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H211" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="I211" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -12076,28 +12073,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C212" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D212" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E212" t="s">
         <v>169</v>
       </c>
       <c r="F212" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G212" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H212" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="I212" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -12105,28 +12102,28 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C213" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D213" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E213" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F213" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G213" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H213" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="I213" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -12134,28 +12131,28 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C214" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D214" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E214" t="s">
         <v>169</v>
       </c>
       <c r="F214" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G214" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H214" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I214" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -12163,28 +12160,28 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C215" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D215" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E215" t="s">
         <v>169</v>
       </c>
       <c r="F215" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G215" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H215" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I215" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -12192,28 +12189,28 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C216" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D216" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E216" t="s">
         <v>183</v>
       </c>
       <c r="F216" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G216" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H216" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="I216" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -12221,28 +12218,28 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C217" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D217" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E217" t="s">
         <v>83</v>
       </c>
       <c r="F217" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G217" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H217" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="I217" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -12250,28 +12247,28 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C218" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D218" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E218" t="s">
         <v>183</v>
       </c>
       <c r="F218" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G218" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H218" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="I218" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -12279,28 +12276,28 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C219" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D219" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E219" t="s">
         <v>169</v>
       </c>
       <c r="F219" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G219" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H219" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="I219" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -12308,28 +12305,28 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C220" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D220" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E220" t="s">
         <v>169</v>
       </c>
       <c r="F220" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G220" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H220" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="I220" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -12337,28 +12334,28 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C221" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D221" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E221" t="s">
         <v>83</v>
       </c>
       <c r="F221" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G221" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H221" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="I221" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -12366,28 +12363,28 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C222" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D222" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E222" t="s">
         <v>83</v>
       </c>
       <c r="F222" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G222" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H222" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="I222" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -12395,28 +12392,28 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C223" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D223" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E223" t="s">
         <v>183</v>
       </c>
       <c r="F223" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G223" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H223" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I223" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -12424,28 +12421,28 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C224" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D224" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E224" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F224" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G224" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H224" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="I224" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -12453,28 +12450,28 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C225" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D225" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E225" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F225" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="G225" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H225" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="I225" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -12482,28 +12479,28 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C226" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D226" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E226" t="s">
         <v>169</v>
       </c>
       <c r="F226" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G226" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H226" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I226" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -12511,28 +12508,28 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C227" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D227" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="E227" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="F227" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G227" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H227" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="I227" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -12540,28 +12537,28 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C228" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D228" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E228" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F228" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G228" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H228" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="I228" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -12569,28 +12566,28 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C229" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D229" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E229" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G229" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H229" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="I229" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -12598,28 +12595,28 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C230" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D230" t="s">
         <v>32</v>
       </c>
       <c r="E230" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G230" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H230" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="I230" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -12627,28 +12624,28 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C231" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D231" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="E231" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F231" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G231" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H231" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="I231" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -12656,28 +12653,28 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C232" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D232" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E232" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F232" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G232" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H232" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="I232" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -12685,28 +12682,28 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C233" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D233" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E233" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F233" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G233" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H233" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I233" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -12714,28 +12711,28 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C234" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D234" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="E234" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F234" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G234" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H234" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="I234" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -12743,28 +12740,28 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C235" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D235" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="E235" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F235" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G235" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H235" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="I235" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -12772,28 +12769,28 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C236" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D236" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E236" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F236" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="G236" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H236" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="I236" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -12801,28 +12798,28 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C237" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D237" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="E237" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F237" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G237" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H237" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="I237" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -12830,28 +12827,28 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C238" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D238" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="E238" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F238" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="G238" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H238" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="I238" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -12859,28 +12856,28 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C239" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D239" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E239" t="s">
         <v>83</v>
       </c>
       <c r="F239" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="G239" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H239" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="I239" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -12888,28 +12885,28 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C240" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D240" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="E240" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F240" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="G240" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H240" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="I240" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -12917,28 +12914,28 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C241" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D241" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="E241" t="s">
         <v>83</v>
       </c>
       <c r="F241" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="G241" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H241" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="I241" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -12946,28 +12943,28 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C242" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D242" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="E242" t="s">
         <v>83</v>
       </c>
       <c r="F242" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="G242" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H242" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="I242" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -12975,28 +12972,28 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C243" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D243" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E243" t="s">
         <v>83</v>
       </c>
       <c r="F243" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="G243" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H243" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="I243" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -13004,28 +13001,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C244" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D244" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E244" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F244" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="G244" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H244" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="I244" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -13033,28 +13030,28 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C245" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D245" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E245" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F245" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="G245" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H245" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="I245" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -13062,28 +13059,28 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C246" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D246" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E246" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F246" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="G246" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H246" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I246" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -13091,28 +13088,28 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C247" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D247" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="E247" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F247" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="G247" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H247" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="I247" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -13120,28 +13117,28 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C248" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D248" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E248" t="s">
         <v>83</v>
       </c>
       <c r="F248" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="G248" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H248" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="I248" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -13149,10 +13146,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C249" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
@@ -13161,16 +13158,16 @@
         <v>83</v>
       </c>
       <c r="F249" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="G249" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H249" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I249" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -13178,28 +13175,28 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C250" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D250" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="E250" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F250" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="G250" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H250" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="I250" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -13207,28 +13204,28 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D251" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="E251" t="s">
         <v>169</v>
       </c>
       <c r="F251" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="G251" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H251" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="I251" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
   </sheetData>
